--- a/Code/Results/Cases/Case_4_248/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_248/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.59158936000109</v>
+        <v>9.016222821604932</v>
       </c>
       <c r="C2">
-        <v>7.857221046629884</v>
+        <v>4.566638621406133</v>
       </c>
       <c r="D2">
-        <v>7.119040499681235</v>
+        <v>5.990388079305196</v>
       </c>
       <c r="E2">
-        <v>14.22934153837176</v>
+        <v>12.24725207756675</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>2.088029189289565</v>
+        <v>3.644644103155783</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>14.48842904681607</v>
+        <v>21.94064994617839</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>11.58504980414919</v>
+        <v>9.178072607331282</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>14.70589021351268</v>
+        <v>13.94576580312774</v>
       </c>
       <c r="N2">
-        <v>12.26966864290657</v>
+        <v>19.06162539099923</v>
       </c>
       <c r="O2">
-        <v>16.52234315646949</v>
+        <v>23.75267136655931</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.77717708686743</v>
+        <v>8.745277880832385</v>
       </c>
       <c r="C3">
-        <v>7.36494913319702</v>
+        <v>4.304111141652966</v>
       </c>
       <c r="D3">
-        <v>6.627502818250342</v>
+        <v>5.872487292434665</v>
       </c>
       <c r="E3">
-        <v>13.36992589476165</v>
+        <v>12.03044354208856</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>2.093215848788649</v>
+        <v>3.646594319692972</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>14.51054931431073</v>
+        <v>22.0057065663292</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>10.89745420769956</v>
+        <v>8.998737671847719</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>13.74277459421627</v>
+        <v>13.78027426953461</v>
       </c>
       <c r="N3">
-        <v>12.48073563390039</v>
+        <v>19.1231232535524</v>
       </c>
       <c r="O3">
-        <v>16.3589127012616</v>
+        <v>23.79536246083149</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.24860182442854</v>
+        <v>8.576394002834267</v>
       </c>
       <c r="C4">
-        <v>7.046530344754349</v>
+        <v>4.133599557423531</v>
       </c>
       <c r="D4">
-        <v>6.308692492210264</v>
+        <v>5.800648373065957</v>
       </c>
       <c r="E4">
-        <v>12.82606956582722</v>
+        <v>11.89955102371895</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>2.096497914186198</v>
+        <v>3.647855411276372</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>14.53556054804612</v>
+        <v>22.0498093504767</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>10.45305415685755</v>
+        <v>8.888649174604984</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>13.11990287643125</v>
+        <v>13.6811957368081</v>
       </c>
       <c r="N4">
-        <v>12.61312851353945</v>
+        <v>19.16263027857524</v>
       </c>
       <c r="O4">
-        <v>16.27185209739666</v>
+        <v>23.8267152334998</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.02601016418532</v>
+        <v>8.507051097611948</v>
       </c>
       <c r="C5">
-        <v>6.912705392493406</v>
+        <v>4.061789297869836</v>
       </c>
       <c r="D5">
-        <v>6.190264881679123</v>
+        <v>5.771557700178214</v>
       </c>
       <c r="E5">
-        <v>12.60056966584235</v>
+        <v>11.84684985933928</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>2.097860506796003</v>
+        <v>3.648385372958467</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>14.54850902064647</v>
+        <v>22.06882531613813</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>10.26639861759023</v>
+        <v>8.843856742378044</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>12.85811269780442</v>
+        <v>13.64150437951378</v>
       </c>
       <c r="N5">
-        <v>12.6678065275829</v>
+        <v>19.17917030099943</v>
       </c>
       <c r="O5">
-        <v>16.23963158309045</v>
+        <v>23.84078169233001</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10.9886140802209</v>
+        <v>8.495508719406706</v>
       </c>
       <c r="C6">
-        <v>6.890238312074569</v>
+        <v>4.049725431546673</v>
       </c>
       <c r="D6">
-        <v>6.171166741203496</v>
+        <v>5.766739677208825</v>
       </c>
       <c r="E6">
-        <v>12.56289823400236</v>
+        <v>11.83813970844915</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>2.09808829940159</v>
+        <v>3.648474343977018</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>14.5508221592756</v>
+        <v>22.07204588791978</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>10.23506993372489</v>
+        <v>8.836425070893778</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>12.81416059081683</v>
+        <v>13.63495630764745</v>
       </c>
       <c r="N6">
-        <v>12.67693033975802</v>
+        <v>19.18194340695739</v>
       </c>
       <c r="O6">
-        <v>16.23447554498193</v>
+        <v>23.84319524426875</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.2456290220896</v>
+        <v>8.57546077636211</v>
       </c>
       <c r="C7">
-        <v>7.044741998764814</v>
+        <v>4.13264048739919</v>
       </c>
       <c r="D7">
-        <v>6.306899756769102</v>
+        <v>5.800255239805523</v>
       </c>
       <c r="E7">
-        <v>12.82304378911933</v>
+        <v>11.89883758905836</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>2.096516188054559</v>
+        <v>3.647862493444218</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>14.53572417039071</v>
+        <v>22.05006158286194</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>10.45055931687249</v>
+        <v>8.888044721926642</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>13.11640457850779</v>
+        <v>13.68065761526152</v>
       </c>
       <c r="N7">
-        <v>12.61386294694852</v>
+        <v>19.16285155750248</v>
       </c>
       <c r="O7">
-        <v>16.27140448694222</v>
+        <v>23.82689971944568</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.31668543393503</v>
+        <v>8.923390008056119</v>
       </c>
       <c r="C8">
-        <v>7.690836160851824</v>
+        <v>4.47806244718128</v>
       </c>
       <c r="D8">
-        <v>6.95306760934748</v>
+        <v>5.949648211373358</v>
       </c>
       <c r="E8">
-        <v>13.93647141979272</v>
+        <v>12.17208098387965</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>2.089797711573601</v>
+        <v>3.645303357915646</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>14.49361262929727</v>
+        <v>21.96221747475769</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>11.3525890431913</v>
+        <v>9.11627067966875</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>14.38032165186417</v>
+        <v>13.88820687076865</v>
       </c>
       <c r="N8">
-        <v>12.34187854672639</v>
+        <v>19.08246801357188</v>
       </c>
       <c r="O8">
-        <v>16.463186704652</v>
+        <v>23.76632291308441</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.19197188199351</v>
+        <v>9.581090733146254</v>
       </c>
       <c r="C9">
-        <v>8.830086420853243</v>
+        <v>5.080941221290415</v>
       </c>
       <c r="D9">
-        <v>8.086792430258795</v>
+        <v>6.245034905400384</v>
       </c>
       <c r="E9">
-        <v>16.11082166487405</v>
+        <v>12.72214505987117</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>2.077366064793553</v>
+        <v>3.640787607347804</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>14.50705830067252</v>
+        <v>21.82302314977187</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>12.94472635062938</v>
+        <v>9.561293260030022</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>16.61110518976421</v>
+        <v>14.3132021480202</v>
       </c>
       <c r="N9">
-        <v>11.82958763335661</v>
+        <v>18.93863942794092</v>
       </c>
       <c r="O9">
-        <v>16.94806907543444</v>
+        <v>23.68842282467934</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.43469063403032</v>
+        <v>10.04376085559096</v>
       </c>
       <c r="C10">
-        <v>9.590362394714475</v>
+        <v>5.47798125044414</v>
       </c>
       <c r="D10">
-        <v>8.840568051025624</v>
+        <v>6.460991099861824</v>
       </c>
       <c r="E10">
-        <v>17.69851677947501</v>
+        <v>13.13037401220226</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>2.068641443151476</v>
+        <v>3.637773081971221</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>14.5828664984482</v>
+        <v>21.74101972543297</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>14.00690423246978</v>
+        <v>9.88320896171442</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>18.10282374079262</v>
+        <v>14.63352841209302</v>
       </c>
       <c r="N10">
-        <v>11.46440181260563</v>
+        <v>18.8412991249664</v>
       </c>
       <c r="O10">
-        <v>17.37478623099906</v>
+        <v>23.65624390245514</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.97126387553044</v>
+        <v>10.24877018682809</v>
       </c>
       <c r="C11">
-        <v>9.919922597053954</v>
+        <v>5.648593642689994</v>
       </c>
       <c r="D11">
-        <v>9.166775781156014</v>
+        <v>6.558495961314454</v>
       </c>
       <c r="E11">
-        <v>18.39140394910745</v>
+        <v>13.3160367271202</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>2.064750692074472</v>
+        <v>3.636466837628387</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>14.63326962394859</v>
+        <v>21.70813500410051</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>14.46698898887283</v>
+        <v>10.02786930904975</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>18.75044990854368</v>
+        <v>14.78038942005485</v>
       </c>
       <c r="N11">
-        <v>11.30031538488016</v>
+        <v>18.79880740478436</v>
       </c>
       <c r="O11">
-        <v>17.58497767471001</v>
+        <v>23.64706488569925</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.17036620851125</v>
+        <v>10.32554308778393</v>
       </c>
       <c r="C12">
-        <v>10.04240977731414</v>
+        <v>5.711760137087875</v>
       </c>
       <c r="D12">
-        <v>9.287943577498762</v>
+        <v>6.595273171017493</v>
       </c>
       <c r="E12">
-        <v>18.64968213348873</v>
+        <v>13.38626111341368</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>2.063287672217464</v>
+        <v>3.635981502383168</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>14.65477670777785</v>
+        <v>21.69631948157615</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>14.63791625138414</v>
+        <v>10.08233852280263</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>18.99132526492229</v>
+        <v>14.83611483379398</v>
       </c>
       <c r="N12">
-        <v>11.238440002072</v>
+        <v>18.78297281183098</v>
       </c>
       <c r="O12">
-        <v>17.6669386010985</v>
+        <v>23.64437499433103</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.12766690370996</v>
+        <v>10.30904800684297</v>
       </c>
       <c r="C13">
-        <v>10.01613214555973</v>
+        <v>5.698220198008977</v>
       </c>
       <c r="D13">
-        <v>9.261952233600484</v>
+        <v>6.587359639048771</v>
       </c>
       <c r="E13">
-        <v>18.59423777214685</v>
+        <v>13.37114185998009</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>2.063602315806818</v>
+        <v>3.63608561464174</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>14.65003502325463</v>
+        <v>21.69883579877798</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>14.60125015555764</v>
+        <v>10.07062224685958</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>18.93964120183297</v>
+        <v>14.82410919271171</v>
       </c>
       <c r="N13">
-        <v>11.25175492046999</v>
+        <v>18.78637170265828</v>
       </c>
       <c r="O13">
-        <v>17.6491807873119</v>
+        <v>23.64491934197595</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15.9877257552614</v>
+        <v>10.25510396746778</v>
       </c>
       <c r="C14">
-        <v>9.930045785813022</v>
+        <v>5.653819269692606</v>
       </c>
       <c r="D14">
-        <v>9.176791392342716</v>
+        <v>6.56152478777334</v>
       </c>
       <c r="E14">
-        <v>18.41273416003412</v>
+        <v>13.32181619781234</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>2.064630127111494</v>
+        <v>3.636426722465248</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>14.63498975991558</v>
+        <v>21.70715015362649</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>14.48111718060168</v>
+        <v>10.03235704799351</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>18.77035386261465</v>
+        <v>14.78497202722445</v>
       </c>
       <c r="N14">
-        <v>11.29521983010278</v>
+        <v>18.79749955716191</v>
       </c>
       <c r="O14">
-        <v>17.59167293098825</v>
+        <v>23.64682783001804</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.90147707316662</v>
+        <v>10.22194765457869</v>
       </c>
       <c r="C15">
-        <v>9.877015607682125</v>
+        <v>5.626434755036536</v>
       </c>
       <c r="D15">
-        <v>9.124321787900252</v>
+        <v>6.545680059470758</v>
       </c>
       <c r="E15">
-        <v>18.30102734049024</v>
+        <v>13.29158991980606</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>2.06526100743845</v>
+        <v>3.636636872050703</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>14.62609323123644</v>
+        <v>21.7123259698558</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>14.40710379375174</v>
+        <v>10.00887650769863</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>18.66609450006766</v>
+        <v>14.76101248185417</v>
       </c>
       <c r="N15">
-        <v>11.321876282254</v>
+        <v>18.80434900744981</v>
       </c>
       <c r="O15">
-        <v>17.5567573901665</v>
+        <v>23.64809921628075</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.39904982682143</v>
+        <v>10.03024658424573</v>
       </c>
       <c r="C16">
-        <v>9.568499706592048</v>
+        <v>5.466629808700444</v>
       </c>
       <c r="D16">
-        <v>8.818917156400719</v>
+        <v>6.45460066473445</v>
       </c>
       <c r="E16">
-        <v>17.65265404346066</v>
+        <v>13.11823309863124</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>2.068897208529464</v>
+        <v>3.637859753623315</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>14.57990408348196</v>
+        <v>21.74325789378273</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>13.97637371302583</v>
+        <v>9.873714508489588</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>18.05988394569118</v>
+        <v>14.62394923635498</v>
       </c>
       <c r="N16">
-        <v>11.47516352391505</v>
+        <v>18.84411195792141</v>
       </c>
       <c r="O16">
-        <v>17.36137792801721</v>
+        <v>23.65695371971086</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.0834969233584</v>
+        <v>9.911190011106203</v>
       </c>
       <c r="C17">
-        <v>9.375084093737653</v>
+        <v>5.366030458075886</v>
       </c>
       <c r="D17">
-        <v>8.627314762732361</v>
+        <v>6.398509001873308</v>
       </c>
       <c r="E17">
-        <v>17.24745864644635</v>
+        <v>13.01181839834663</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>2.071147281378949</v>
+        <v>3.638626586394861</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>14.55573898911244</v>
+        <v>21.76336672697361</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>13.70623303033229</v>
+        <v>9.79030117818456</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>17.68012151445617</v>
+        <v>14.54012089241629</v>
       </c>
       <c r="N17">
-        <v>11.56969977727827</v>
+        <v>18.86896259962078</v>
       </c>
       <c r="O17">
-        <v>17.2456760661021</v>
+        <v>23.66378474780913</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.89929047579419</v>
+        <v>9.842201686354249</v>
       </c>
       <c r="C18">
-        <v>9.26230071768927</v>
+        <v>5.307226851721507</v>
       </c>
       <c r="D18">
-        <v>8.515536848170131</v>
+        <v>6.366179674193624</v>
       </c>
       <c r="E18">
-        <v>17.01162932746759</v>
+        <v>12.95061182165826</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>2.07244887531534</v>
+        <v>3.639073776596916</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>14.54333022150966</v>
+        <v>21.77534863805457</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>13.548678488702</v>
+        <v>9.742159489544497</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>17.45877210622334</v>
+        <v>14.49201570772338</v>
       </c>
       <c r="N18">
-        <v>11.62426844876735</v>
+        <v>18.88342447581522</v>
       </c>
       <c r="O18">
-        <v>17.18063755086395</v>
+        <v>23.66822760128165</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.83645472773471</v>
+        <v>9.818758199572668</v>
       </c>
       <c r="C19">
-        <v>9.223849495312452</v>
+        <v>5.287155350650352</v>
       </c>
       <c r="D19">
-        <v>8.47741936788359</v>
+        <v>6.355223289476614</v>
       </c>
       <c r="E19">
-        <v>16.93130209137531</v>
+        <v>12.92989074864543</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>2.0728908723056</v>
+        <v>3.639226241492555</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>14.53938078893969</v>
+        <v>21.77947687370946</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>13.49495869594897</v>
+        <v>9.725832990391048</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>17.38332297498768</v>
+        <v>14.4757487214236</v>
       </c>
       <c r="N19">
-        <v>11.64277873176882</v>
+        <v>18.88834998397759</v>
       </c>
       <c r="O19">
-        <v>17.1588742837085</v>
+        <v>23.66982008958657</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.11736808503341</v>
+        <v>9.923917145983484</v>
       </c>
       <c r="C20">
-        <v>9.395832244630416</v>
+        <v>5.376836896184212</v>
       </c>
       <c r="D20">
-        <v>8.647873710639608</v>
+        <v>6.404487275235453</v>
       </c>
       <c r="E20">
-        <v>17.29087841498086</v>
+        <v>13.02314694895569</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>2.070906996608648</v>
+        <v>3.638544321825706</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>14.5581562057819</v>
+        <v>21.7611830562487</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>13.73521508963908</v>
+        <v>9.799198104057503</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>17.72084949453481</v>
+        <v>14.54903348880847</v>
       </c>
       <c r="N20">
-        <v>11.55961639192198</v>
+        <v>18.866299781293</v>
       </c>
       <c r="O20">
-        <v>17.25783602981234</v>
+        <v>23.6630043858067</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>16.02894036776666</v>
+        <v>10.27097252542588</v>
       </c>
       <c r="C21">
-        <v>9.955393849185745</v>
+        <v>5.666900009516747</v>
       </c>
       <c r="D21">
-        <v>9.201868919501708</v>
+        <v>6.569117374623025</v>
       </c>
       <c r="E21">
-        <v>18.46615652145189</v>
+        <v>13.33630715684108</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>2.064327961436447</v>
+        <v>3.636326278500615</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>14.63934217725746</v>
+        <v>21.70469071888652</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>14.51649238520594</v>
+        <v>10.0436053101743</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>18.82019544286047</v>
+        <v>14.79646492341201</v>
       </c>
       <c r="N21">
-        <v>11.28244632849861</v>
+        <v>18.79422409510493</v>
       </c>
       <c r="O21">
-        <v>17.60849975205949</v>
+        <v>23.64624592331871</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16.6009121218612</v>
+        <v>10.49275321208831</v>
       </c>
       <c r="C22">
-        <v>10.30765288077673</v>
+        <v>5.848075434588329</v>
       </c>
       <c r="D22">
-        <v>9.550200712618379</v>
+        <v>6.675846006069107</v>
       </c>
       <c r="E22">
-        <v>19.21041603846447</v>
+        <v>13.54046426055145</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>2.060087881545619</v>
+        <v>3.634930909826749</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>14.70657160158263</v>
+        <v>21.67148459571616</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>15.00790225087467</v>
+        <v>10.20150659599365</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>19.51327504177704</v>
+        <v>14.95880693050632</v>
       </c>
       <c r="N22">
-        <v>11.10280217006917</v>
+        <v>18.74861069007263</v>
       </c>
       <c r="O22">
-        <v>17.85149299503938</v>
+        <v>23.63987488018763</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.29780049728992</v>
+        <v>10.37486844989643</v>
       </c>
       <c r="C23">
-        <v>10.1208640230243</v>
+        <v>5.752147434905095</v>
       </c>
       <c r="D23">
-        <v>9.365532726668659</v>
+        <v>6.618974902872414</v>
       </c>
       <c r="E23">
-        <v>18.8153308338005</v>
+        <v>13.43157279806092</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>2.062345747879221</v>
+        <v>3.635670695842984</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>14.66934997102853</v>
+        <v>21.6888668598923</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>14.7473741667805</v>
+        <v>10.11741659045181</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>19.14565968356244</v>
+        <v>14.87212115996489</v>
       </c>
       <c r="N23">
-        <v>11.19855537995616</v>
+        <v>18.77281925752399</v>
       </c>
       <c r="O23">
-        <v>17.72052167260646</v>
+        <v>23.64285580076466</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>15.10206362934181</v>
+        <v>9.918164888024375</v>
       </c>
       <c r="C24">
-        <v>9.386456948590038</v>
+        <v>5.371954319540291</v>
       </c>
       <c r="D24">
-        <v>8.638584069019585</v>
+        <v>6.401784748592156</v>
       </c>
       <c r="E24">
-        <v>17.27125730799543</v>
+        <v>13.01802539060749</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>2.071015604376339</v>
+        <v>3.638581493922965</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>14.55705876955412</v>
+        <v>21.76216898226012</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>13.72211930159645</v>
+        <v>9.795176379821674</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>17.70244578443911</v>
+        <v>14.54500382325053</v>
       </c>
       <c r="N24">
-        <v>11.5641744073604</v>
+        <v>18.8675030965052</v>
       </c>
       <c r="O24">
-        <v>17.25233390440378</v>
+        <v>23.66335558143097</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.70854712621039</v>
+        <v>9.406402757674833</v>
       </c>
       <c r="C25">
-        <v>8.53546688396637</v>
+        <v>4.925882898566395</v>
       </c>
       <c r="D25">
-        <v>7.79415329781811</v>
+        <v>6.165133342172064</v>
       </c>
       <c r="E25">
-        <v>15.49937089049277</v>
+        <v>12.57229208024554</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>2.080653984054073</v>
+        <v>3.641955758387346</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>14.49238135122844</v>
+        <v>21.85712779215719</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>12.53295072331844</v>
+        <v>9.441544046636087</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>16.03378012819624</v>
+        <v>14.19659983887774</v>
       </c>
       <c r="N25">
-        <v>11.9660856007178</v>
+        <v>18.97607988836647</v>
       </c>
       <c r="O25">
-        <v>16.80479427503474</v>
+        <v>23.70510475889124</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_248/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_248/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>9.016222821604932</v>
+        <v>12.59158936000109</v>
       </c>
       <c r="C2">
-        <v>4.566638621406133</v>
+        <v>7.857221046629981</v>
       </c>
       <c r="D2">
-        <v>5.990388079305196</v>
+        <v>7.119040499681294</v>
       </c>
       <c r="E2">
-        <v>12.24725207756675</v>
+        <v>14.22934153837177</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>3.644644103155783</v>
+        <v>2.088029189289563</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>21.94064994617839</v>
+        <v>14.4884290468161</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>9.178072607331282</v>
+        <v>11.58504980414921</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>13.94576580312774</v>
+        <v>14.7058902135127</v>
       </c>
       <c r="N2">
-        <v>19.06162539099923</v>
+        <v>12.26966864290657</v>
       </c>
       <c r="O2">
-        <v>23.75267136655931</v>
+        <v>16.5223431564695</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>8.745277880832385</v>
+        <v>11.77717708686751</v>
       </c>
       <c r="C3">
-        <v>4.304111141652966</v>
+        <v>7.364949133197005</v>
       </c>
       <c r="D3">
-        <v>5.872487292434665</v>
+        <v>6.627502818250345</v>
       </c>
       <c r="E3">
-        <v>12.03044354208856</v>
+        <v>13.36992589476166</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>3.646594319692972</v>
+        <v>2.093215848788784</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>22.0057065663292</v>
+        <v>14.51054931431066</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>8.998737671847719</v>
+        <v>10.89745420769963</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>13.78027426953461</v>
+        <v>13.7427745942163</v>
       </c>
       <c r="N3">
-        <v>19.1231232535524</v>
+        <v>12.48073563390039</v>
       </c>
       <c r="O3">
-        <v>23.79536246083149</v>
+        <v>16.35891270126154</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>8.576394002834267</v>
+        <v>11.24860182442843</v>
       </c>
       <c r="C4">
-        <v>4.133599557423531</v>
+        <v>7.046530344754349</v>
       </c>
       <c r="D4">
-        <v>5.800648373065957</v>
+        <v>6.308692492210262</v>
       </c>
       <c r="E4">
-        <v>11.89955102371895</v>
+        <v>12.82606956582719</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>3.647855411276372</v>
+        <v>2.096497914186199</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>22.0498093504767</v>
+        <v>14.53556054804639</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>8.888649174604984</v>
+        <v>10.45305415685744</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>13.6811957368081</v>
+        <v>13.11990287643121</v>
       </c>
       <c r="N4">
-        <v>19.16263027857524</v>
+        <v>12.61312851353958</v>
       </c>
       <c r="O4">
-        <v>23.8267152334998</v>
+        <v>16.27185209739688</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>8.507051097611948</v>
+        <v>11.02601016418534</v>
       </c>
       <c r="C5">
-        <v>4.061789297869836</v>
+        <v>6.912705392493177</v>
       </c>
       <c r="D5">
-        <v>5.771557700178214</v>
+        <v>6.190264881679205</v>
       </c>
       <c r="E5">
-        <v>11.84684985933928</v>
+        <v>12.60056966584234</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>3.648385372958467</v>
+        <v>2.097860506796137</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>22.06882531613813</v>
+        <v>14.54850902064659</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>8.843856742378044</v>
+        <v>10.26639861759013</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>13.64150437951378</v>
+        <v>12.8581126978044</v>
       </c>
       <c r="N5">
-        <v>19.17917030099943</v>
+        <v>12.667806527583</v>
       </c>
       <c r="O5">
-        <v>23.84078169233001</v>
+        <v>16.23963158309068</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>8.495508719406706</v>
+        <v>10.98861408022094</v>
       </c>
       <c r="C6">
-        <v>4.049725431546673</v>
+        <v>6.890238312074475</v>
       </c>
       <c r="D6">
-        <v>5.766739677208825</v>
+        <v>6.171166741203542</v>
       </c>
       <c r="E6">
-        <v>11.83813970844915</v>
+        <v>12.56289823400237</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>3.648474343977018</v>
+        <v>2.09808829940159</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>22.07204588791978</v>
+        <v>14.5508221592755</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>8.836425070893778</v>
+        <v>10.23506993372493</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>13.63495630764745</v>
+        <v>12.81416059081687</v>
       </c>
       <c r="N6">
-        <v>19.18194340695739</v>
+        <v>12.67693033975792</v>
       </c>
       <c r="O6">
-        <v>23.84319524426875</v>
+        <v>16.23447554498182</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>8.57546077636211</v>
+        <v>11.24562902208952</v>
       </c>
       <c r="C7">
-        <v>4.13264048739919</v>
+        <v>7.044741998764653</v>
       </c>
       <c r="D7">
-        <v>5.800255239805523</v>
+        <v>6.306899756769075</v>
       </c>
       <c r="E7">
-        <v>11.89883758905836</v>
+        <v>12.82304378911932</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>3.647862493444218</v>
+        <v>2.096516188054426</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>22.05006158286194</v>
+        <v>14.53572417039066</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>8.888044721926642</v>
+        <v>10.45055931687238</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>13.68065761526152</v>
+        <v>13.11640457850774</v>
       </c>
       <c r="N7">
-        <v>19.16285155750248</v>
+        <v>12.61386294694845</v>
       </c>
       <c r="O7">
-        <v>23.82689971944568</v>
+        <v>16.27140448694227</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>8.923390008056119</v>
+        <v>12.3166854339351</v>
       </c>
       <c r="C8">
-        <v>4.47806244718128</v>
+        <v>7.690836160851873</v>
       </c>
       <c r="D8">
-        <v>5.949648211373358</v>
+        <v>6.95306760934749</v>
       </c>
       <c r="E8">
-        <v>12.17208098387965</v>
+        <v>13.93647141979272</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>3.645303357915646</v>
+        <v>2.08979771157387</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>21.96221747475769</v>
+        <v>14.49361262929716</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>9.11627067966875</v>
+        <v>11.35258904319133</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>13.88820687076865</v>
+        <v>14.38032165186416</v>
       </c>
       <c r="N8">
-        <v>19.08246801357188</v>
+        <v>12.34187854672632</v>
       </c>
       <c r="O8">
-        <v>23.76632291308441</v>
+        <v>16.46318670465192</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>9.581090733146254</v>
+        <v>14.19197188199355</v>
       </c>
       <c r="C9">
-        <v>5.080941221290415</v>
+        <v>8.830086420853196</v>
       </c>
       <c r="D9">
-        <v>6.245034905400384</v>
+        <v>8.086792430258802</v>
       </c>
       <c r="E9">
-        <v>12.72214505987117</v>
+        <v>16.11082166487407</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>3.640787607347804</v>
+        <v>2.077366064793555</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>21.82302314977187</v>
+        <v>14.50705830067254</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>9.561293260030022</v>
+        <v>12.94472635062942</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>14.3132021480202</v>
+        <v>16.61110518976426</v>
       </c>
       <c r="N9">
-        <v>18.93863942794092</v>
+        <v>11.82958763335665</v>
       </c>
       <c r="O9">
-        <v>23.68842282467934</v>
+        <v>16.94806907543449</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>10.04376085559096</v>
+        <v>15.43469063403038</v>
       </c>
       <c r="C10">
-        <v>5.47798125044414</v>
+        <v>9.590362394714374</v>
       </c>
       <c r="D10">
-        <v>6.460991099861824</v>
+        <v>8.840568051025599</v>
       </c>
       <c r="E10">
-        <v>13.13037401220226</v>
+        <v>17.698516779475</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>3.637773081971221</v>
+        <v>2.06864144315161</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>21.74101972543297</v>
+        <v>14.58286649844818</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>9.88320896171442</v>
+        <v>14.00690423246982</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>14.63352841209302</v>
+        <v>18.10282374079264</v>
       </c>
       <c r="N10">
-        <v>18.8412991249664</v>
+        <v>11.4644018126056</v>
       </c>
       <c r="O10">
-        <v>23.65624390245514</v>
+        <v>17.37478623099905</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>10.24877018682809</v>
+        <v>15.97126387553054</v>
       </c>
       <c r="C11">
-        <v>5.648593642689994</v>
+        <v>9.919922597053906</v>
       </c>
       <c r="D11">
-        <v>6.558495961314454</v>
+        <v>9.166775781156002</v>
       </c>
       <c r="E11">
-        <v>13.3160367271202</v>
+        <v>18.39140394910748</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>3.636466837628387</v>
+        <v>2.064750692074472</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>21.70813500410051</v>
+        <v>14.63326962394854</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>10.02786930904975</v>
+        <v>14.4669889888729</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>14.78038942005485</v>
+        <v>18.75044990854375</v>
       </c>
       <c r="N11">
-        <v>18.79880740478436</v>
+        <v>11.30031538488006</v>
       </c>
       <c r="O11">
-        <v>23.64706488569925</v>
+        <v>17.58497767470998</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>10.32554308778393</v>
+        <v>16.17036620851122</v>
       </c>
       <c r="C12">
-        <v>5.711760137087875</v>
+        <v>10.04240977731397</v>
       </c>
       <c r="D12">
-        <v>6.595273171017493</v>
+        <v>9.287943577498845</v>
       </c>
       <c r="E12">
-        <v>13.38626111341368</v>
+        <v>18.64968213348877</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>3.635981502383168</v>
+        <v>2.063287672217199</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>21.69631948157615</v>
+        <v>14.65477670777788</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>10.08233852280263</v>
+        <v>14.63791625138407</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>14.83611483379398</v>
+        <v>18.99132526492227</v>
       </c>
       <c r="N12">
-        <v>18.78297281183098</v>
+        <v>11.238440002072</v>
       </c>
       <c r="O12">
-        <v>23.64437499433103</v>
+        <v>17.66693860109855</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>10.30904800684297</v>
+        <v>16.12766690371005</v>
       </c>
       <c r="C13">
-        <v>5.698220198008977</v>
+        <v>10.0161321455598</v>
       </c>
       <c r="D13">
-        <v>6.587359639048771</v>
+        <v>9.261952233600496</v>
       </c>
       <c r="E13">
-        <v>13.37114185998009</v>
+        <v>18.59423777214678</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>3.63608561464174</v>
+        <v>2.063602315806818</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>21.69883579877798</v>
+        <v>14.6500350232546</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>10.07062224685958</v>
+        <v>14.60125015555772</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>14.82410919271171</v>
+        <v>18.93964120183297</v>
       </c>
       <c r="N13">
-        <v>18.78637170265828</v>
+        <v>11.25175492046999</v>
       </c>
       <c r="O13">
-        <v>23.64491934197595</v>
+        <v>17.64918078731188</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>10.25510396746778</v>
+        <v>15.9877257552613</v>
       </c>
       <c r="C14">
-        <v>5.653819269692606</v>
+        <v>9.930045785813096</v>
       </c>
       <c r="D14">
-        <v>6.56152478777334</v>
+        <v>9.176791392342757</v>
       </c>
       <c r="E14">
-        <v>13.32181619781234</v>
+        <v>18.41273416003416</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>3.636426722465248</v>
+        <v>2.064630127111359</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>21.70715015362649</v>
+        <v>14.63498975991566</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>10.03235704799351</v>
+        <v>14.48111718060164</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>14.78497202722445</v>
+        <v>18.77035386261464</v>
       </c>
       <c r="N14">
-        <v>18.79749955716191</v>
+        <v>11.29521983010281</v>
       </c>
       <c r="O14">
-        <v>23.64682783001804</v>
+        <v>17.59167293098832</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>10.22194765457869</v>
+        <v>15.90147707316666</v>
       </c>
       <c r="C15">
-        <v>5.626434755036536</v>
+        <v>9.877015607682203</v>
       </c>
       <c r="D15">
-        <v>6.545680059470758</v>
+        <v>9.124321787900289</v>
       </c>
       <c r="E15">
-        <v>13.29158991980606</v>
+        <v>18.30102734049021</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>3.636636872050703</v>
+        <v>2.065261007438582</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>21.7123259698558</v>
+        <v>14.62609323123656</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>10.00887650769863</v>
+        <v>14.40710379375175</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>14.76101248185417</v>
+        <v>18.66609450006764</v>
       </c>
       <c r="N15">
-        <v>18.80434900744981</v>
+        <v>11.32187628225407</v>
       </c>
       <c r="O15">
-        <v>23.64809921628075</v>
+        <v>17.55675739016658</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>10.03024658424573</v>
+        <v>15.39904982682138</v>
       </c>
       <c r="C16">
-        <v>5.466629808700444</v>
+        <v>9.568499706592039</v>
       </c>
       <c r="D16">
-        <v>6.45460066473445</v>
+        <v>8.81891715640071</v>
       </c>
       <c r="E16">
-        <v>13.11823309863124</v>
+        <v>17.65265404346065</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>3.637859753623315</v>
+        <v>2.068897208529327</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>21.74325789378273</v>
+        <v>14.57990408348208</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>9.873714508489588</v>
+        <v>13.97637371302581</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>14.62394923635498</v>
+        <v>18.05988394569119</v>
       </c>
       <c r="N16">
-        <v>18.84411195792141</v>
+        <v>11.47516352391515</v>
       </c>
       <c r="O16">
-        <v>23.65695371971086</v>
+        <v>17.3613779280173</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>9.911190011106203</v>
+        <v>15.08349692335852</v>
       </c>
       <c r="C17">
-        <v>5.366030458075886</v>
+        <v>9.375084093737579</v>
       </c>
       <c r="D17">
-        <v>6.398509001873308</v>
+        <v>8.627314762732407</v>
       </c>
       <c r="E17">
-        <v>13.01181839834663</v>
+        <v>17.24745864644634</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>3.638626586394861</v>
+        <v>2.071147281379083</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>21.76336672697361</v>
+        <v>14.55573898911227</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>9.79030117818456</v>
+        <v>13.70623303033234</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>14.54012089241629</v>
+        <v>17.6801215144562</v>
       </c>
       <c r="N17">
-        <v>18.86896259962078</v>
+        <v>11.56969977727814</v>
       </c>
       <c r="O17">
-        <v>23.66378474780913</v>
+        <v>17.245676066102</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>9.842201686354249</v>
+        <v>14.89929047579413</v>
       </c>
       <c r="C18">
-        <v>5.307226851721507</v>
+        <v>9.262300717689353</v>
       </c>
       <c r="D18">
-        <v>6.366179674193624</v>
+        <v>8.515536848170136</v>
       </c>
       <c r="E18">
-        <v>12.95061182165826</v>
+        <v>17.0116293274676</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>3.639073776596916</v>
+        <v>2.072448875315073</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>21.77534863805457</v>
+        <v>14.54333022150966</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>9.742159489544497</v>
+        <v>13.54867848870203</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>14.49201570772338</v>
+        <v>17.45877210622336</v>
       </c>
       <c r="N18">
-        <v>18.88342447581522</v>
+        <v>11.62426844876729</v>
       </c>
       <c r="O18">
-        <v>23.66822760128165</v>
+        <v>17.1806375508639</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>9.818758199572668</v>
+        <v>14.83645472773468</v>
       </c>
       <c r="C19">
-        <v>5.287155350650352</v>
+        <v>9.22384949531236</v>
       </c>
       <c r="D19">
-        <v>6.355223289476614</v>
+        <v>8.477419367883545</v>
       </c>
       <c r="E19">
-        <v>12.92989074864543</v>
+        <v>16.93130209137529</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>3.639226241492555</v>
+        <v>2.072890872305602</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>21.77947687370946</v>
+        <v>14.53938078893978</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>9.725832990391048</v>
+        <v>13.49495869594889</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>14.4757487214236</v>
+        <v>17.38332297498765</v>
       </c>
       <c r="N19">
-        <v>18.88834998397759</v>
+        <v>11.64277873176886</v>
       </c>
       <c r="O19">
-        <v>23.66982008958657</v>
+        <v>17.15887428370862</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>9.923917145983484</v>
+        <v>15.11736808503342</v>
       </c>
       <c r="C20">
-        <v>5.376836896184212</v>
+        <v>9.395832244630455</v>
       </c>
       <c r="D20">
-        <v>6.404487275235453</v>
+        <v>8.647873710639638</v>
       </c>
       <c r="E20">
-        <v>13.02314694895569</v>
+        <v>17.29087841498089</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>3.638544321825706</v>
+        <v>2.070906996608381</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>21.7611830562487</v>
+        <v>14.55815620578184</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>9.799198104057503</v>
+        <v>13.73521508963907</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>14.54903348880847</v>
+        <v>17.72084949453483</v>
       </c>
       <c r="N20">
-        <v>18.866299781293</v>
+        <v>11.55961639192185</v>
       </c>
       <c r="O20">
-        <v>23.6630043858067</v>
+        <v>17.25783602981225</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>10.27097252542588</v>
+        <v>16.02894036776668</v>
       </c>
       <c r="C21">
-        <v>5.666900009516747</v>
+        <v>9.955393849185768</v>
       </c>
       <c r="D21">
-        <v>6.569117374623025</v>
+        <v>9.201868919501759</v>
       </c>
       <c r="E21">
-        <v>13.33630715684108</v>
+        <v>18.46615652145188</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>3.636326278500615</v>
+        <v>2.064327961436313</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>21.70469071888652</v>
+        <v>14.63934217725744</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>10.0436053101743</v>
+        <v>14.51649238520596</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>14.79646492341201</v>
+        <v>18.82019544286047</v>
       </c>
       <c r="N21">
-        <v>18.79422409510493</v>
+        <v>11.28244632849858</v>
       </c>
       <c r="O21">
-        <v>23.64624592331871</v>
+        <v>17.60849975205949</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>10.49275321208831</v>
+        <v>16.60091212186112</v>
       </c>
       <c r="C22">
-        <v>5.848075434588329</v>
+        <v>10.30765288077676</v>
       </c>
       <c r="D22">
-        <v>6.675846006069107</v>
+        <v>9.550200712618418</v>
       </c>
       <c r="E22">
-        <v>13.54046426055145</v>
+        <v>19.21041603846444</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>3.634930909826749</v>
+        <v>2.060087881545353</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>21.67148459571616</v>
+        <v>14.7065716015828</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>10.20150659599365</v>
+        <v>15.00790225087462</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>14.95880693050632</v>
+        <v>19.513275041777</v>
       </c>
       <c r="N22">
-        <v>18.74861069007263</v>
+        <v>11.10280217006927</v>
       </c>
       <c r="O22">
-        <v>23.63987488018763</v>
+        <v>17.8514929950395</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>10.37486844989643</v>
+        <v>16.29780049728981</v>
       </c>
       <c r="C23">
-        <v>5.752147434905095</v>
+        <v>10.12086402302426</v>
       </c>
       <c r="D23">
-        <v>6.618974902872414</v>
+        <v>9.365532726668624</v>
       </c>
       <c r="E23">
-        <v>13.43157279806092</v>
+        <v>18.81533083380044</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>3.635670695842984</v>
+        <v>2.06234574787949</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>21.6888668598923</v>
+        <v>14.6693499710287</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>10.11741659045181</v>
+        <v>14.74737416678041</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>14.87212115996489</v>
+        <v>19.14565968356236</v>
       </c>
       <c r="N23">
-        <v>18.77281925752399</v>
+        <v>11.1985553799563</v>
       </c>
       <c r="O23">
-        <v>23.64285580076466</v>
+        <v>17.72052167260663</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>9.918164888024375</v>
+        <v>15.10206362934189</v>
       </c>
       <c r="C24">
-        <v>5.371954319540291</v>
+        <v>9.386456948590007</v>
       </c>
       <c r="D24">
-        <v>6.401784748592156</v>
+        <v>8.638584069019597</v>
       </c>
       <c r="E24">
-        <v>13.01802539060749</v>
+        <v>17.27125730799539</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>3.638581493922965</v>
+        <v>2.071015604376071</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>21.76216898226012</v>
+        <v>14.557058769554</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>9.795176379821674</v>
+        <v>13.72211930159651</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>14.54500382325053</v>
+        <v>17.70244578443911</v>
       </c>
       <c r="N24">
-        <v>18.8675030965052</v>
+        <v>11.5641744073603</v>
       </c>
       <c r="O24">
-        <v>23.66335558143097</v>
+        <v>17.25233390440368</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>9.406402757674833</v>
+        <v>13.70854712621042</v>
       </c>
       <c r="C25">
-        <v>4.925882898566395</v>
+        <v>8.535466883966444</v>
       </c>
       <c r="D25">
-        <v>6.165133342172064</v>
+        <v>7.794153297818126</v>
       </c>
       <c r="E25">
-        <v>12.57229208024554</v>
+        <v>15.49937089049275</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>3.641955758387346</v>
+        <v>2.080653984054209</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>21.85712779215719</v>
+        <v>14.49238135122835</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>9.441544046636087</v>
+        <v>12.53295072331851</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>14.19659983887774</v>
+        <v>16.03378012819625</v>
       </c>
       <c r="N25">
-        <v>18.97607988836647</v>
+        <v>11.96608560071777</v>
       </c>
       <c r="O25">
-        <v>23.70510475889124</v>
+        <v>16.80479427503466</v>
       </c>
     </row>
   </sheetData>
